--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2773323333333333</v>
+        <v>0.1275786666666667</v>
       </c>
       <c r="H2">
-        <v>0.831997</v>
+        <v>0.382736</v>
       </c>
       <c r="I2">
-        <v>0.8087518542063997</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="J2">
-        <v>0.8087518542063996</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N2">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O2">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P2">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q2">
-        <v>0.02570436242677778</v>
+        <v>0.006374935868444445</v>
       </c>
       <c r="R2">
-        <v>0.231339261841</v>
+        <v>0.057374422816</v>
       </c>
       <c r="S2">
-        <v>0.08414520751844622</v>
+        <v>0.02044844803933324</v>
       </c>
       <c r="T2">
-        <v>0.0841452075184462</v>
+        <v>0.02044844803933324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2773323333333333</v>
+        <v>0.1275786666666667</v>
       </c>
       <c r="H3">
-        <v>0.831997</v>
+        <v>0.382736</v>
       </c>
       <c r="I3">
-        <v>0.8087518542063997</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="J3">
-        <v>0.8087518542063996</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.7696</v>
       </c>
       <c r="O3">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P3">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q3">
-        <v>0.1635890990222222</v>
+        <v>0.07525440284444444</v>
       </c>
       <c r="R3">
-        <v>1.4723018912</v>
+        <v>0.6772896256000001</v>
       </c>
       <c r="S3">
-        <v>0.535521498507991</v>
+        <v>0.2413884277507511</v>
       </c>
       <c r="T3">
-        <v>0.5355214985079909</v>
+        <v>0.2413884277507511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2773323333333333</v>
+        <v>0.1275786666666667</v>
       </c>
       <c r="H4">
-        <v>0.831997</v>
+        <v>0.382736</v>
       </c>
       <c r="I4">
-        <v>0.8087518542063997</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="J4">
-        <v>0.8087518542063996</v>
+        <v>0.2993455218931061</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N4">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O4">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P4">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q4">
-        <v>0.05776102194855556</v>
+        <v>0.01169356290311111</v>
       </c>
       <c r="R4">
-        <v>0.5198491975370001</v>
+        <v>0.105242066128</v>
       </c>
       <c r="S4">
-        <v>0.1890851481799624</v>
+        <v>0.03750864610302176</v>
       </c>
       <c r="T4">
-        <v>0.1890851481799624</v>
+        <v>0.03750864610302175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2986133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.89584</v>
+      </c>
+      <c r="I5">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="J5">
+        <v>0.700654478106894</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.06558166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.196745</v>
-      </c>
-      <c r="I5">
-        <v>0.1912481457936003</v>
-      </c>
-      <c r="J5">
-        <v>0.1912481457936003</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N5">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O5">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P5">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q5">
-        <v>0.006078393053888888</v>
+        <v>0.01492131011555556</v>
       </c>
       <c r="R5">
-        <v>0.054705537485</v>
+        <v>0.13429179104</v>
       </c>
       <c r="S5">
-        <v>0.01989808719648833</v>
+        <v>0.04786207122286978</v>
       </c>
       <c r="T5">
-        <v>0.01989808719648833</v>
+        <v>0.04786207122286978</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06558166666666666</v>
+        <v>0.2986133333333333</v>
       </c>
       <c r="H6">
-        <v>0.196745</v>
+        <v>0.89584</v>
       </c>
       <c r="I6">
-        <v>0.1912481457936003</v>
+        <v>0.700654478106894</v>
       </c>
       <c r="J6">
-        <v>0.1912481457936003</v>
+        <v>0.700654478106894</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.7696</v>
       </c>
       <c r="O6">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P6">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q6">
-        <v>0.03868443911111111</v>
+        <v>0.1761420515555556</v>
       </c>
       <c r="R6">
-        <v>0.348159952</v>
+        <v>1.585278464</v>
       </c>
       <c r="S6">
-        <v>0.1266364869392013</v>
+        <v>0.5649988742011017</v>
       </c>
       <c r="T6">
-        <v>0.1266364869392013</v>
+        <v>0.5649988742011017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06558166666666666</v>
+        <v>0.2986133333333333</v>
       </c>
       <c r="H7">
-        <v>0.196745</v>
+        <v>0.89584</v>
       </c>
       <c r="I7">
-        <v>0.1912481457936003</v>
+        <v>0.700654478106894</v>
       </c>
       <c r="J7">
-        <v>0.1912481457936003</v>
+        <v>0.700654478106894</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N7">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O7">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P7">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q7">
-        <v>0.01365893418277778</v>
+        <v>0.02737020136888889</v>
       </c>
       <c r="R7">
-        <v>0.122930407645</v>
+        <v>0.24633181232</v>
       </c>
       <c r="S7">
-        <v>0.04471357165791067</v>
+        <v>0.08779353268292246</v>
       </c>
       <c r="T7">
-        <v>0.04471357165791066</v>
+        <v>0.08779353268292245</v>
       </c>
     </row>
   </sheetData>
